--- a/Project-KTXForecasting/Result/Shared_20240707/Forecasting_동해선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240707/Forecasting_동해선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240707\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421C3F7-C248-4BC3-8FC0-FBAE2C481FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65669502-6D9C-46FA-96ED-C0EFEE0AAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -260,12 +260,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -310,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -327,6 +339,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,23 +352,27 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -6557,10 +6574,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE41FFE4-5112-42B8-8EC8-1CF00CC313D2}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6570,21 +6587,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -6596,7 +6613,7 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -7039,24 +7056,24 @@
         <f>Forecasting_주중!D12</f>
         <v>288357</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="9" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="str">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="str">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -7095,7 +7112,7 @@
         <f>Forecasting_주중!D13</f>
         <v>289904.25</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NHITS</v>
@@ -7250,7 +7267,7 @@
         <v>16266.131944444445</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -7316,7 +7333,7 @@
         <v>18598.892578125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -7382,7 +7399,7 @@
         <v>15668.230263157895</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -7448,7 +7465,7 @@
         <v>17638.919117647059</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -7514,7 +7531,7 @@
         <v>17544.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -7580,7 +7597,7 @@
         <v>15876.97697368421</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -7646,7 +7663,7 @@
         <v>19047.041015625</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -7712,7 +7729,7 @@
         <v>17066.079861111109</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -7777,8 +7794,20 @@
         <f t="shared" si="6"/>
         <v>16905.805555555555</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R24" s="8">
+        <f>AVERAGE(M24:M35)</f>
+        <v>21784.529365879418</v>
+      </c>
+      <c r="S24" s="8">
+        <f>AVERAGE(O24:O35)</f>
+        <v>26147.213795405984</v>
+      </c>
+      <c r="T24" s="8">
+        <f>AVERAGE(Q24:Q35)</f>
+        <v>17887.623429000847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -7844,7 +7873,7 @@
         <v>19119.373046875</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -7910,7 +7939,7 @@
         <v>18092.700367647059</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -7976,7 +8005,7 @@
         <v>17053.381944444445</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -8042,7 +8071,7 @@
         <v>18073.244485294119</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -8108,7 +8137,7 @@
         <v>18142.259191176472</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -8174,7 +8203,7 @@
         <v>16196.740131578947</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -8240,7 +8269,7 @@
         <v>19359.55078125</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -8522,801 +8551,801 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9BC422-5A5F-46DF-9513-99FC81AC4A0F}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.08203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.08203125" customWidth="1"/>
+    <col min="8" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.08203125" customWidth="1"/>
+    <col min="12" max="13" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D4" s="13">
         <f>Forecasting_전체!C2</f>
         <v>565822</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E4" s="13">
         <f>Forecasting_전체!D2</f>
         <v>553139.25</v>
       </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
+      <c r="F4" s="13">
+        <f>E4-D4</f>
         <v>-12682.75</v>
       </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
+      <c r="G4" s="14">
+        <f>F4/D4</f>
         <v>-2.2414734669206925E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H4" s="13">
         <f>Forecasting_주말!C2</f>
         <v>297771</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I4" s="13">
         <f>Forecasting_주말!D2</f>
         <v>249049.703125</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
+      <c r="J4" s="13">
+        <f>I4-H4</f>
         <v>-48721.296875</v>
       </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
+      <c r="K4" s="14">
+        <f>J4/H4</f>
         <v>-0.16362001966276099</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L4" s="13">
         <f>Forecasting_주중!C2</f>
         <v>268051</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M4" s="13">
         <f>Forecasting_주중!D2</f>
         <v>273565.71875</v>
       </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
+      <c r="N4" s="13">
+        <f>M4-L4</f>
         <v>5514.71875</v>
       </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
+      <c r="O4" s="14">
+        <f>N4/L4</f>
         <v>2.0573393682545484E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D5" s="13">
         <f>Forecasting_전체!C3</f>
         <v>609128</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E5" s="13">
         <f>Forecasting_전체!D3</f>
         <v>556275.6875</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:F15" si="0">E5-D5</f>
         <v>-52852.3125</v>
       </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G15" si="1">F5/D5</f>
         <v>-8.6767169626088436E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H5" s="13">
         <f>Forecasting_주말!C3</f>
         <v>263870</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="13">
         <f>Forecasting_주말!D3</f>
         <v>260315.15625</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J15" si="2">I5-H5</f>
         <v>-3554.84375</v>
       </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K15" si="3">J5/H5</f>
         <v>-1.3471951150187593E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="13">
         <f>Forecasting_주중!C3</f>
         <v>345258</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M5" s="13">
         <f>Forecasting_주중!D3</f>
         <v>269914.75</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N15" si="4">M5-L5</f>
         <v>-75343.25</v>
       </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O15" si="5">N5/L5</f>
         <v>-0.21822303900271681</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D6" s="13">
         <f>Forecasting_전체!C4</f>
         <v>567550</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E6" s="13">
         <f>Forecasting_전체!D4</f>
         <v>543910.5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>-23639.5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>-4.1651836842568936E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H6" s="13">
         <f>Forecasting_주말!C4</f>
         <v>272448</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I6" s="13">
         <f>Forecasting_주말!D4</f>
         <v>238090.0625</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>-34357.9375</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K6" s="14">
         <f t="shared" si="3"/>
         <v>-0.12610823900340615</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L6" s="13">
         <f>Forecasting_주중!C4</f>
         <v>295102</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M6" s="13">
         <f>Forecasting_주중!D4</f>
         <v>276487.75</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
         <v>-18614.25</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
         <v>-6.3077342749286683E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="13">
         <f>Forecasting_전체!C5</f>
         <v>570404</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E7" s="13">
         <f>Forecasting_전체!D5</f>
         <v>551994.6875</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>-18409.3125</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>-3.2274164451862188E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H7" s="13">
         <f>Forecasting_주말!C5</f>
         <v>280402</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="13">
         <f>Forecasting_주말!D5</f>
         <v>242848.421875</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>-37553.578125</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>-0.13392764004892976</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L7" s="13">
         <f>Forecasting_주중!C5</f>
         <v>290002</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M7" s="13">
         <f>Forecasting_주중!D5</f>
         <v>282261.625</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
         <v>-7740.375</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
         <v>-2.6690764201626197E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="13">
         <f>Forecasting_전체!C6</f>
         <v>582320</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E8" s="13">
         <f>Forecasting_전체!D6</f>
         <v>551066.4375</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>-31253.5625</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>-5.3670769508174197E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="13">
         <f>Forecasting_주말!C6</f>
         <v>249895</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I8" s="13">
         <f>Forecasting_주말!D6</f>
         <v>243295.984375</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>-6599.015625</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
         <v>-2.6407153504471877E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L8" s="13">
         <f>Forecasting_주중!C6</f>
         <v>332425</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M8" s="13">
         <f>Forecasting_주중!D6</f>
         <v>281937.78125</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
         <v>-50487.21875</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
         <v>-0.15187551703391741</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="13">
         <f>Forecasting_전체!C7</f>
         <v>549980</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E9" s="13">
         <f>Forecasting_전체!D7</f>
         <v>563852.375</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>13872.375</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>2.5223417215171462E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H9" s="13">
         <f>Forecasting_주말!C7</f>
         <v>275474</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I9" s="13">
         <f>Forecasting_주말!D7</f>
         <v>265386.78125</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>-10087.21875</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
         <v>-3.6617679889935167E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L9" s="13">
         <f>Forecasting_주중!C7</f>
         <v>274506</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M9" s="13">
         <f>Forecasting_주중!D7</f>
         <v>281716.875</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
         <v>7210.875</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>2.6268551507070883E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="13">
         <f>Forecasting_전체!C8</f>
         <v>605377</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E10" s="13">
         <f>Forecasting_전체!D8</f>
         <v>560933.25</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>-44443.75</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>-7.3414995944675793E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H10" s="13">
         <f>Forecasting_주말!C8</f>
         <v>283487</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I10" s="13">
         <f>Forecasting_주말!D8</f>
         <v>259016.546875</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>-24470.453125</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K10" s="14">
         <f t="shared" si="3"/>
         <v>-8.6319489518037862E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L10" s="13">
         <f>Forecasting_주중!C8</f>
         <v>321890</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M10" s="13">
         <f>Forecasting_주중!D8</f>
         <v>282932.875</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N10" s="13">
         <f t="shared" si="4"/>
         <v>-38957.125</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>-0.12102620460405729</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="13">
         <f>Forecasting_전체!C9</f>
         <v>587287</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E11" s="13">
         <f>Forecasting_전체!D9</f>
         <v>554020.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>-33266.5</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>-5.664436638304611E-2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="13">
         <f>Forecasting_주말!C9</f>
         <v>281015</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I11" s="13">
         <f>Forecasting_주말!D9</f>
         <v>255032.234375</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
         <v>-25982.765625</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>-9.2460422486344146E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L11" s="13">
         <f>Forecasting_주중!C9</f>
         <v>306272</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M11" s="13">
         <f>Forecasting_주중!D9</f>
         <v>288702.25</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N11" s="13">
         <f t="shared" si="4"/>
         <v>-17569.75</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>-5.7366491223487616E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D12" s="13">
         <f>Forecasting_전체!C10</f>
         <v>612267</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E12" s="13">
         <f>Forecasting_전체!D10</f>
         <v>557554.9375</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>-54712.0625</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>-8.9359809527542716E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H12" s="13">
         <f>Forecasting_주말!C10</f>
         <v>324842</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I12" s="13">
         <f>Forecasting_주말!D10</f>
         <v>267236.6875</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
         <v>-57605.3125</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>-0.17733332666342405</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L12" s="13">
         <f>Forecasting_주중!C10</f>
         <v>287425</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M12" s="13">
         <f>Forecasting_주중!D10</f>
         <v>288293.71875</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N12" s="13">
         <f t="shared" si="4"/>
         <v>868.71875</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>3.0224188918848397E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D13" s="13">
         <f>Forecasting_전체!C11</f>
         <v>558618</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E13" s="13">
         <f>Forecasting_전체!D11</f>
         <v>561895.6875</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>3277.6875</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>5.8674935286725455E-3</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H13" s="13">
         <f>Forecasting_주말!C11</f>
         <v>240495</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I13" s="13">
         <f>Forecasting_주말!D11</f>
         <v>268109.28125</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>27614.28125</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>0.1148226834237718</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L13" s="13">
         <f>Forecasting_주중!C11</f>
         <v>318123</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M13" s="13">
         <f>Forecasting_주중!D11</f>
         <v>289069.46875</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N13" s="13">
         <f t="shared" si="4"/>
         <v>-29053.53125</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>-9.1327980843887421E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D14" s="13">
         <f>Forecasting_전체!C12</f>
         <v>583061</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E14" s="13">
         <f>Forecasting_전체!D12</f>
         <v>571821.3125</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>-11239.6875</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>-1.92770353359254E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H14" s="13">
         <f>Forecasting_주말!C12</f>
         <v>251132</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I14" s="13">
         <f>Forecasting_주말!D12</f>
         <v>273172.71875</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
         <v>22040.71875</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>8.7765472938534317E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L14" s="13">
         <f>Forecasting_주중!C12</f>
         <v>331929</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M14" s="13">
         <f>Forecasting_주중!D12</f>
         <v>288357</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
         <v>-43572</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>-0.13126903645056623</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D15" s="13">
         <f>Forecasting_전체!C13</f>
         <v>577560</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E15" s="13">
         <f>Forecasting_전체!D13</f>
         <v>581484.5625</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>3924.5625</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>6.7950732391439854E-3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H15" s="13">
         <f>Forecasting_주말!C13</f>
         <v>319320</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I15" s="13">
         <f>Forecasting_주말!D13</f>
         <v>292669.0625</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
         <v>-26650.9375</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
         <v>-8.3461535450331956E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L15" s="13">
         <f>Forecasting_주중!C13</f>
         <v>258240</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M15" s="13">
         <f>Forecasting_주중!D13</f>
         <v>289904.25</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
         <v>31664.25</v>
       </c>
-      <c r="N14" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>0.12261559014869888</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:O16" si="6">AVERAGE(D4:D15)</f>
         <v>580781.16666666663</v>
       </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
         <v>558995.765625</v>
       </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
+      <c r="F16" s="15">
+        <f t="shared" si="6"/>
         <v>-21785.401041666668</v>
       </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
+      <c r="G16" s="14">
+        <f t="shared" si="6"/>
         <v>-3.6465741525508556E-2</v>
       </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
         <v>278345.91666666669</v>
       </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
+      <c r="I16" s="15">
+        <f t="shared" si="6"/>
         <v>259518.55338541666</v>
       </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
+      <c r="J16" s="15">
+        <f t="shared" si="6"/>
         <v>-18827.36328125</v>
       </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
+      <c r="K16" s="14">
+        <f t="shared" si="6"/>
         <v>-6.1428275084626949E-2</v>
       </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
+      <c r="L16" s="15">
+        <f t="shared" si="6"/>
         <v>302435.25</v>
       </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
         <v>282762.00520833331</v>
       </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
+      <c r="N16" s="15">
+        <f t="shared" si="6"/>
         <v>-19673.244791666668</v>
       </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
+      <c r="O16" s="14">
+        <f t="shared" si="6"/>
         <v>-5.7364701823278796E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
